--- a/asset_allcation.xlsx
+++ b/asset_allcation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwan/Dev/Consulting project in data science/real_estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4EF2DE-861A-574C-8893-F769450BBE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36543251-961D-714D-B4C3-99FEED040E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{22245CF4-AAC6-1142-BBD1-0E5B8E20D6A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19000" xr2:uid="{22245CF4-AAC6-1142-BBD1-0E5B8E20D6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>9-5 income</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>Index ETF</t>
+  </si>
+  <si>
+    <t>Invesco high dividends &amp; Low volatility</t>
+  </si>
+  <si>
+    <t>Vanguard S&amp;P 500 ETF</t>
+  </si>
+  <si>
+    <t>Amgen</t>
+  </si>
+  <si>
+    <t>Invesco QQQ Trust Series I</t>
+  </si>
+  <si>
+    <t>ABCD</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,11 +219,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A552257-39C9-1C43-9138-9ECD8BC6AC67}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,294 +550,238 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1">
         <v>99008</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>2500</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.33</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.7</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>130</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.24</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.06</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <f>B2*E4/E2</f>
         <v>90909.090909090912</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>2630</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>8500</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>46000</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>47200</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>10500</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <f>SUM(E6:E11)</f>
         <v>112200</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
